--- a/sheets/output.xlsx
+++ b/sheets/output.xlsx
@@ -64,9 +64,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -77,59 +76,119 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Blank">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="00A2FF"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="16E7CF"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="61D836"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFD932"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF644E"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="FF42A1"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="FF00FF"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Blank">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue"/>
-        <a:ea typeface="Helvetica Neue"/>
-        <a:cs typeface="Helvetica Neue"/>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Blank">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -163,7 +222,7 @@
               <a:schemeClr val="phClr">
                 <a:tint val="100000"/>
                 <a:shade val="100000"/>
-                <a:satMod val="129999"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -182,7 +241,7 @@
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
-              <a:satMod val="104999"/>
+              <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
           <a:prstDash val="solid"/>
@@ -202,13 +261,42 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -265,865 +353,45 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
-      <a:spPr>
-        <a:solidFill>
-          <a:srgbClr val="000000"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
       </a:style>
     </a:spDef>
     <a:lnDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:noAutofit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
       </a:style>
     </a:lnDef>
-    <a:txDef>
-      <a:spPr>
-        <a:noFill/>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
-        <a:spAutoFit/>
-      </a:bodyPr>
-      <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
-          </a:defRPr>
-        </a:defPPr>
-        <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl1pPr>
-        <a:lvl2pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl2pPr>
-        <a:lvl3pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl3pPr>
-        <a:lvl4pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl4pPr>
-        <a:lvl5pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl5pPr>
-        <a:lvl6pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl6pPr>
-        <a:lvl7pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl7pPr>
-        <a:lvl8pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl8pPr>
-        <a:lvl9pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-          </a:defRPr>
-        </a:lvl9pPr>
-      </a:lstStyle>
-      <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
-        <a:fontRef idx="none"/>
-      </a:style>
-    </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1131,7 +399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" customWidth="1" width="16.3516"/>
@@ -17520,53 +16788,384 @@
     <col min="16384" max="16384" customWidth="1" width="16.3516"/>
   </cols>
   <sheetData>
-    <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="1" t="str">
+    <row r="2">
+      <c r="A2" t="str">
         <v>Id</v>
       </c>
+      <c r="D2">
+        <v/>
+      </c>
+      <c r="E2">
+        <v/>
+      </c>
+      <c r="F2">
+        <v/>
+      </c>
+      <c r="G2">
+        <v/>
+      </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3">
       <c r="A3">
         <v>100</v>
       </c>
+      <c r="D3">
+        <v/>
+      </c>
+      <c r="E3">
+        <v/>
+      </c>
+      <c r="F3">
+        <v/>
+      </c>
+      <c r="G3">
+        <v/>
+      </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4">
       <c r="A4">
         <v>200</v>
       </c>
+      <c r="D4">
+        <v/>
+      </c>
+      <c r="E4">
+        <v/>
+      </c>
+      <c r="F4">
+        <v/>
+      </c>
+      <c r="G4">
+        <v/>
+      </c>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
+    <row r="5">
       <c r="A5">
         <v>300</v>
       </c>
+      <c r="D5">
+        <v/>
+      </c>
+      <c r="E5">
+        <v/>
+      </c>
+      <c r="F5">
+        <v/>
+      </c>
+      <c r="G5">
+        <v/>
+      </c>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
+    <row r="6">
       <c r="A6">
         <v>400</v>
       </c>
+      <c r="D6">
+        <v/>
+      </c>
+      <c r="E6">
+        <v/>
+      </c>
+      <c r="F6">
+        <v/>
+      </c>
+      <c r="G6">
+        <v/>
+      </c>
     </row>
-    <row r="7" ht="20.05" customHeight="1"/>
-    <row r="8" ht="20.05" customHeight="1"/>
-    <row r="9" ht="20.05" customHeight="1"/>
-    <row r="10" ht="20.05" customHeight="1"/>
-    <row r="11" ht="20.05" customHeight="1"/>
-    <row r="12" ht="20.05" customHeight="1"/>
-    <row r="13" ht="20.05" customHeight="1"/>
-    <row r="14" ht="20.05" customHeight="1"/>
-    <row r="15" ht="20.05" customHeight="1"/>
-    <row r="16" ht="20.05" customHeight="1"/>
-    <row r="17" ht="20.05" customHeight="1"/>
-    <row r="18" ht="20.05" customHeight="1"/>
-    <row r="19" ht="20.05" customHeight="1"/>
-    <row r="20" ht="20.05" customHeight="1"/>
-    <row r="21" ht="20.05" customHeight="1"/>
-    <row r="22" ht="20.05" customHeight="1"/>
-    <row r="23" ht="20.05" customHeight="1"/>
+    <row r="7">
+      <c r="A7">
+        <v/>
+      </c>
+      <c r="D7">
+        <v/>
+      </c>
+      <c r="E7">
+        <v/>
+      </c>
+      <c r="F7">
+        <v/>
+      </c>
+      <c r="G7">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v/>
+      </c>
+      <c r="D8">
+        <v/>
+      </c>
+      <c r="E8">
+        <v/>
+      </c>
+      <c r="F8">
+        <v/>
+      </c>
+      <c r="G8">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v/>
+      </c>
+      <c r="D9">
+        <v/>
+      </c>
+      <c r="E9">
+        <v/>
+      </c>
+      <c r="F9">
+        <v/>
+      </c>
+      <c r="G9">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v/>
+      </c>
+      <c r="D10">
+        <v/>
+      </c>
+      <c r="E10">
+        <v/>
+      </c>
+      <c r="F10">
+        <v/>
+      </c>
+      <c r="G10">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v/>
+      </c>
+      <c r="D11">
+        <v/>
+      </c>
+      <c r="E11">
+        <v/>
+      </c>
+      <c r="F11">
+        <v/>
+      </c>
+      <c r="G11">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
+        <v/>
+      </c>
+      <c r="D12">
+        <v/>
+      </c>
+      <c r="E12">
+        <v/>
+      </c>
+      <c r="F12">
+        <v/>
+      </c>
+      <c r="G12">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v/>
+      </c>
+      <c r="D13">
+        <v/>
+      </c>
+      <c r="E13">
+        <v/>
+      </c>
+      <c r="F13">
+        <v/>
+      </c>
+      <c r="G13">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v/>
+      </c>
+      <c r="D14">
+        <v/>
+      </c>
+      <c r="E14">
+        <v/>
+      </c>
+      <c r="F14">
+        <v/>
+      </c>
+      <c r="G14">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v/>
+      </c>
+      <c r="D15">
+        <v/>
+      </c>
+      <c r="E15">
+        <v/>
+      </c>
+      <c r="F15">
+        <v/>
+      </c>
+      <c r="G15">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v/>
+      </c>
+      <c r="D16">
+        <v/>
+      </c>
+      <c r="E16">
+        <v/>
+      </c>
+      <c r="F16">
+        <v/>
+      </c>
+      <c r="G16">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v/>
+      </c>
+      <c r="D17">
+        <v/>
+      </c>
+      <c r="E17">
+        <v/>
+      </c>
+      <c r="F17">
+        <v/>
+      </c>
+      <c r="G17">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
+        <v/>
+      </c>
+      <c r="D18">
+        <v/>
+      </c>
+      <c r="E18">
+        <v/>
+      </c>
+      <c r="F18">
+        <v/>
+      </c>
+      <c r="G18">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19">
+        <v/>
+      </c>
+      <c r="D19">
+        <v/>
+      </c>
+      <c r="E19">
+        <v/>
+      </c>
+      <c r="F19">
+        <v/>
+      </c>
+      <c r="G19">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20">
+        <v/>
+      </c>
+      <c r="D20">
+        <v/>
+      </c>
+      <c r="E20">
+        <v/>
+      </c>
+      <c r="F20">
+        <v/>
+      </c>
+      <c r="G20">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21">
+        <v/>
+      </c>
+      <c r="D21">
+        <v/>
+      </c>
+      <c r="E21">
+        <v/>
+      </c>
+      <c r="F21">
+        <v/>
+      </c>
+      <c r="G21">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22">
+        <v/>
+      </c>
+      <c r="D22">
+        <v/>
+      </c>
+      <c r="E22">
+        <v/>
+      </c>
+      <c r="F22">
+        <v/>
+      </c>
+      <c r="G22">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23">
+        <v/>
+      </c>
+      <c r="D23">
+        <v/>
+      </c>
+      <c r="E23">
+        <v/>
+      </c>
+      <c r="F23">
+        <v/>
+      </c>
+      <c r="G23">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <ignoredErrors>
     <ignoredError numberStoredAsText="1" sqref="A2:G23"/>
   </ignoredErrors>
